--- a/test2-colors/PnoColorTest.xlsx
+++ b/test2-colors/PnoColorTest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop Geert\Documents\GitHub\2019-2020-PnOCW-team-1\test2-colors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennismaes-mac/Documents/GitHub/2019-2020-PnOCW-team-1/test2-colors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1220885-E010-4C16-8220-67872FA67DD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0D12927-9818-46F1-A2DE-71526A358BEB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Conversion!$E$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test!$C$1:$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -227,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +302,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -309,31 +314,31 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -341,30 +346,30 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -395,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,30 +716,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9533354B-902A-4E66-85EE-13CC10F8A1B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="8.88671875" style="12"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="5.77734375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="5.77734375" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" style="14" customWidth="1"/>
-    <col min="14" max="16" width="3.77734375" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="5"/>
-    <col min="18" max="18" width="8.88671875" style="6"/>
-    <col min="19" max="19" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="8.83203125" style="11"/>
+    <col min="5" max="5" width="8.83203125" style="12"/>
+    <col min="6" max="6" width="8.83203125" style="13"/>
+    <col min="7" max="7" width="5.83203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="5.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" style="14" customWidth="1"/>
+    <col min="14" max="16" width="3.83203125" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="5"/>
+    <col min="18" max="18" width="8.83203125" style="6"/>
+    <col min="19" max="19" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -796,7 +801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -816,15 +821,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f>D2/255</f>
+        <f t="shared" ref="G2:I3" si="0">D2/255</f>
         <v>0.50196078431372548</v>
       </c>
       <c r="H2">
-        <f>E2/255</f>
+        <f t="shared" si="0"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="I2">
-        <f>F2/255</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
@@ -852,15 +857,15 @@
         <v>240</v>
       </c>
       <c r="P2">
-        <f>L2/(1-ABS(2*S2-1))</f>
+        <f t="shared" ref="P2:P9" si="1">L2/(1-ABS(2*S2-1))</f>
         <v>1.003921568627451</v>
       </c>
       <c r="Q2" s="5">
-        <f>ROUND(IF(L2=0,0,IF(J2=G2,M2,IF(J2=H2,N2,O2))),0)</f>
+        <f t="shared" ref="Q2:Q9" si="2">ROUND(IF(L2=0,0,IF(J2=G2,M2,IF(J2=H2,N2,O2))),0)</f>
         <v>60</v>
       </c>
       <c r="R2" s="6">
-        <f>ROUND(IF(L2=0,0,P2),2)</f>
+        <f t="shared" ref="R2:R9" si="3">ROUND(IF(L2=0,0,P2),2)</f>
         <v>1</v>
       </c>
       <c r="S2" s="7">
@@ -871,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -888,15 +893,15 @@
         <v>191</v>
       </c>
       <c r="G3" s="1">
-        <f>D3/255</f>
+        <f t="shared" si="0"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="H3">
-        <f>E3/255</f>
+        <f t="shared" si="0"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="I3">
-        <f>F3/255</f>
+        <f t="shared" si="0"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="J3">
@@ -924,23 +929,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P3">
-        <f>L3/(1-ABS(2*S3-1))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f>ROUND(IF(L3=0,0,IF(J3=G3,M3,IF(J3=H3,N3,O3))),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R3" s="6">
-        <f>ROUND(IF(L3=0,0,P3),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S3" s="7">
-        <f t="shared" ref="S3:S9" si="0">ROUND((J3+K3)/2,2)</f>
+        <f t="shared" ref="S3:S9" si="4">ROUND((J3+K3)/2,2)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -957,59 +962,59 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G9" si="1">D4/255</f>
+        <f t="shared" ref="G4:G9" si="5">D4/255</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H9" si="2">E4/255</f>
+        <f t="shared" ref="H4:H9" si="6">E4/255</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I9" si="3">F4/255</f>
+        <f t="shared" ref="I4:I9" si="7">F4/255</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J9" si="4">MAX(G4:I4)</f>
+        <f t="shared" ref="J4:J9" si="8">MAX(G4:I4)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K9" si="5">MIN(G4:I4)</f>
+        <f t="shared" ref="K4:K9" si="9">MIN(G4:I4)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L9" si="6">J4-K4</f>
+        <f t="shared" ref="L4:L9" si="10">J4-K4</f>
         <v>0</v>
       </c>
       <c r="M4" s="14" t="e">
-        <f t="shared" ref="M4:M9" si="7">60*(MOD(((H4-I4)/L4),6))</f>
+        <f t="shared" ref="M4:M9" si="11">60*(MOD(((H4-I4)/L4),6))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" t="e">
-        <f t="shared" ref="N4:N9" si="8">60*(((I4-G4)/L4)+2)</f>
+        <f t="shared" ref="N4:N9" si="12">60*(((I4-G4)/L4)+2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O4" t="e">
-        <f t="shared" ref="O4:O9" si="9">60*(((G4-H4)/L4)+4)</f>
+        <f t="shared" ref="O4:O9" si="13">60*(((G4-H4)/L4)+4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" t="e">
-        <f>L4/(1-ABS(2*S4-1))</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="5">
-        <f>ROUND(IF(L4=0,0,IF(J4=G4,M4,IF(J4=H4,N4,O4))),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="6">
-        <f>ROUND(IF(L4=0,0,P4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1030,59 +1035,59 @@
         <v>229</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0.65098039215686276</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.89803921568627454</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0.89803921568627454</v>
-      </c>
-      <c r="K5">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>0.65098039215686276</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>0.89803921568627454</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>0.89803921568627454</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
       <c r="L5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.49803921568627452</v>
       </c>
       <c r="M5" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>330.23622047244095</v>
       </c>
       <c r="N5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="O5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>209.76377952755905</v>
       </c>
       <c r="P5">
-        <f>L5/(1-ABS(2*S5-1))</f>
+        <f t="shared" si="1"/>
         <v>0.71148459383753504</v>
       </c>
       <c r="Q5" s="5">
-        <f>ROUND(IF(L5=0,0,IF(J5=G5,M5,IF(J5=H5,N5,O5))),0)</f>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="R5" s="6">
-        <f>ROUND(IF(L5=0,0,P5),2)</f>
+        <f t="shared" si="3"/>
         <v>0.71</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1103,59 +1108,59 @@
         <v>24</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5294117647058823E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.52549019607843139</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>9.4117647058823528E-2</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>0.52549019607843139</v>
-      </c>
-      <c r="K6">
         <f t="shared" si="5"/>
         <v>3.5294117647058823E-2</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0.52549019607843139</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>9.4117647058823528E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>0.52549019607843139</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>3.5294117647058823E-2</v>
+      </c>
       <c r="L6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.49019607843137258</v>
       </c>
       <c r="M6" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>52.8</v>
       </c>
       <c r="N6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>127.2</v>
       </c>
       <c r="O6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>180</v>
       </c>
       <c r="P6">
-        <f>L6/(1-ABS(2*S6-1))</f>
+        <f t="shared" si="1"/>
         <v>0.87535014005602241</v>
       </c>
       <c r="Q6" s="5">
-        <f>ROUND(IF(L6=0,0,IF(J6=G6,M6,IF(J6=H6,N6,O6))),0)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="R6" s="6">
-        <f>ROUND(IF(L6=0,0,P6),2)</f>
+        <f t="shared" si="3"/>
         <v>0.88</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1172,59 +1177,59 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="R7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="9"/>
-        <v>300</v>
-      </c>
-      <c r="P7">
-        <f>L7/(1-ABS(2*S7-1))</f>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>ROUND(IF(L7=0,0,IF(J7=G7,M7,IF(J7=H7,N7,O7))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <f>ROUND(IF(L7=0,0,P7),2)</f>
-        <v>1</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1241,59 +1246,59 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I8">
+        <v>120</v>
+      </c>
+      <c r="R8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="P8">
-        <f>L8/(1-ABS(2*S8-1))</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5">
-        <f>ROUND(IF(L8=0,0,IF(J8=G8,M8,IF(J8=H8,N8,O8))),0)</f>
-        <v>120</v>
-      </c>
-      <c r="R8" s="6">
-        <f>ROUND(IF(L8=0,0,P8),2)</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="7">
-        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1310,55 +1315,55 @@
         <v>255</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
+        <v>240</v>
+      </c>
+      <c r="R9" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="S9" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="8"/>
-        <v>180</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="9"/>
-        <v>240</v>
-      </c>
-      <c r="P9">
-        <f>L9/(1-ABS(2*S9-1))</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <f>ROUND(IF(L9=0,0,IF(J9=G9,M9,IF(J9=H9,N9,O9))),0)</f>
-        <v>240</v>
-      </c>
-      <c r="R9" s="6">
-        <f>ROUND(IF(L9=0,0,P9),2)</f>
-        <v>1</v>
-      </c>
-      <c r="S9" s="7">
-        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -1368,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A234B6B2-8B3C-449F-A301-C9772F2EE765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1376,22 +1381,22 @@
       <selection pane="bottomLeft" activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="11"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="8.88671875" style="13"/>
-    <col min="8" max="8" width="5.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="5.77734375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="17" width="3.77734375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="5"/>
-    <col min="19" max="19" width="8.88671875" style="6"/>
-    <col min="20" max="20" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="11"/>
+    <col min="6" max="6" width="8.83203125" style="12"/>
+    <col min="7" max="7" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="5.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="5.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="17" width="3.83203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="5"/>
+    <col min="19" max="19" width="8.83203125" style="6"/>
+    <col min="20" max="20" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -1473,15 +1478,15 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f>E2/255</f>
+        <f t="shared" ref="H2:J3" si="0">E2/255</f>
         <v>1</v>
       </c>
       <c r="I2">
-        <f>F2/255</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2">
-        <f>G2/255</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K2">
@@ -1509,15 +1514,15 @@
         <v>300</v>
       </c>
       <c r="Q2">
-        <f>M2/(1-ABS(2*T2-1))</f>
+        <f t="shared" ref="Q2:Q9" si="1">M2/(1-ABS(2*T2-1))</f>
         <v>1</v>
       </c>
       <c r="R2" s="5">
-        <f>ROUND(IF(M2=0,0,IF(K2=H2,N2,IF(K2=I2,O2,P2))),0)</f>
+        <f t="shared" ref="R2:R9" si="2">ROUND(IF(M2=0,0,IF(K2=H2,N2,IF(K2=I2,O2,P2))),0)</f>
         <v>0</v>
       </c>
       <c r="S2" s="6">
-        <f>ROUND(IF(M2=0,0,Q2),2)</f>
+        <f t="shared" ref="S2:S9" si="3">ROUND(IF(M2=0,0,Q2),2)</f>
         <v>1</v>
       </c>
       <c r="T2" s="7">
@@ -1525,7 +1530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -1536,27 +1541,27 @@
         <v>31</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E10" si="0">HEX2DEC(MID(D3,2,2))</f>
+        <f t="shared" ref="E3:E10" si="4">HEX2DEC(MID(D3,2,2))</f>
         <v>255</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F10" si="1">HEX2DEC(MID(D3,4,2))</f>
+        <f t="shared" ref="F3:F10" si="5">HEX2DEC(MID(D3,4,2))</f>
         <v>255</v>
       </c>
       <c r="G3" s="13">
-        <f t="shared" ref="G3:G10" si="2">HEX2DEC(MID(D3,6,2))</f>
+        <f t="shared" ref="G3:G10" si="6">HEX2DEC(MID(D3,6,2))</f>
         <v>255</v>
       </c>
       <c r="H3" s="1">
-        <f>E3/255</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3">
-        <f>F3/255</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>G3/255</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3">
@@ -1584,23 +1589,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q3" t="e">
-        <f>M3/(1-ABS(2*T3-1))</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R3" s="5">
-        <f>ROUND(IF(M3=0,0,IF(K3=H3,N3,IF(K3=I3,O3,P3))),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S3" s="6">
-        <f>ROUND(IF(M3=0,0,Q3),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T3" s="7">
-        <f t="shared" ref="T3:T10" si="3">ROUND((K3+L3)/2,2)</f>
+        <f t="shared" ref="T3:T10" si="7">ROUND((K3+L3)/2,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -1611,71 +1616,71 @@
         <v>30</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="F4" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J11" si="8">E4/255</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="9">MAX(H4:J4)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L11" si="10">MIN(H4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="11">K4-L4</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N11" si="12">60*(MOD(((I4-J4)/M4),6))</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O11" si="13">60*(((J4-H4)/M4)+2)</f>
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P11" si="14">60*(((H4-I4)/M4)+4)</f>
+        <v>300</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:J11" si="4">E4/255</f>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K11" si="5">MAX(H4:J4)</f>
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L11" si="6">MIN(H4:J4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M11" si="7">K4-L4</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="14">
-        <f t="shared" ref="N4:N11" si="8">60*(MOD(((I4-J4)/M4),6))</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O11" si="9">60*(((J4-H4)/M4)+2)</f>
-        <v>60</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P11" si="10">60*(((H4-I4)/M4)+4)</f>
-        <v>300</v>
-      </c>
-      <c r="Q4">
-        <f>M4/(1-ABS(2*T4-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <f>ROUND(IF(M4=0,0,IF(K4=H4,N4,IF(K4=I4,O4,P4))),0)</f>
-        <v>0</v>
-      </c>
       <c r="S4" s="6">
-        <f>ROUND(IF(M4=0,0,Q4),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -1686,71 +1691,71 @@
         <v>32</v>
       </c>
       <c r="E5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F5" s="12">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="14">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
+        <v>120</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="14">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="Q5">
-        <f>M5/(1-ABS(2*T5-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <f>ROUND(IF(M5=0,0,IF(K5=H5,N5,IF(K5=I5,O5,P5))),0)</f>
-        <v>120</v>
-      </c>
-      <c r="S5" s="6">
-        <f>ROUND(IF(M5=0,0,Q5),2)</f>
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -1761,71 +1766,71 @@
         <v>33</v>
       </c>
       <c r="E6" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F6" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
+        <v>240</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="14">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="Q6">
-        <f>M6/(1-ABS(2*T6-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="5">
-        <f>ROUND(IF(M6=0,0,IF(K6=H6,N6,IF(K6=I6,O6,P6))),0)</f>
-        <v>240</v>
-      </c>
-      <c r="S6" s="6">
-        <f>ROUND(IF(M6=0,0,Q6),2)</f>
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -1836,71 +1841,71 @@
         <v>34</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="F7" s="12">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="14">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
+        <v>60</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="14">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="9"/>
-        <v>60</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="Q7">
-        <f>M7/(1-ABS(2*T7-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R7" s="5">
-        <f>ROUND(IF(M7=0,0,IF(K7=H7,N7,IF(K7=I7,O7,P7))),0)</f>
-        <v>60</v>
-      </c>
-      <c r="S7" s="6">
-        <f>ROUND(IF(M7=0,0,Q7),2)</f>
-        <v>1</v>
-      </c>
-      <c r="T7" s="7">
-        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1911,71 +1916,71 @@
         <v>35</v>
       </c>
       <c r="E8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8" s="12">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="14"/>
+        <v>180</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
+        <v>180</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="9"/>
-        <v>180</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="10"/>
-        <v>180</v>
-      </c>
-      <c r="Q8">
-        <f>M8/(1-ABS(2*T8-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R8" s="5">
-        <f>ROUND(IF(M8=0,0,IF(K8=H8,N8,IF(K8=I8,O8,P8))),0)</f>
-        <v>180</v>
-      </c>
-      <c r="S8" s="6">
-        <f>ROUND(IF(M8=0,0,Q8),2)</f>
-        <v>1</v>
-      </c>
-      <c r="T8" s="7">
-        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1986,71 +1991,71 @@
         <v>36</v>
       </c>
       <c r="E9" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="F9" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="2"/>
-        <v>255</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
+        <v>300</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="7">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="14">
-        <f t="shared" si="8"/>
-        <v>300</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="10"/>
-        <v>300</v>
-      </c>
-      <c r="Q9">
-        <f>M9/(1-ABS(2*T9-1))</f>
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <f>ROUND(IF(M9=0,0,IF(K9=H9,N9,IF(K9=I9,O9,P9))),0)</f>
-        <v>300</v>
-      </c>
-      <c r="S9" s="6">
-        <f>ROUND(IF(M9=0,0,Q9),2)</f>
-        <v>1</v>
-      </c>
-      <c r="T9" s="7">
-        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -2061,71 +2066,71 @@
         <v>37</v>
       </c>
       <c r="E10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>191</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>191</v>
       </c>
       <c r="G10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="L10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.74901960784313726</v>
       </c>
       <c r="M10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q17" si="15">M10/(1-ABS(2*T10-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" ref="R10:R17" si="16">ROUND(IF(M10=0,0,IF(K10=H10,N10,IF(K10=I10,O10,P10))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" ref="S10:S17" si="17">ROUND(IF(M10=0,0,Q10),2)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="14" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" ref="Q10:Q17" si="11">M10/(1-ABS(2*T10-1))</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <f t="shared" ref="R10:R17" si="12">ROUND(IF(M10=0,0,IF(K10=H10,N10,IF(K10=I10,O10,P10))),0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="6">
-        <f t="shared" ref="S10:S17" si="13">ROUND(IF(M10=0,0,Q10),2)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -2136,71 +2141,71 @@
         <v>38</v>
       </c>
       <c r="E11" s="11">
-        <f>HEX2DEC(MID(D11,2,2))</f>
+        <f t="shared" ref="E11:E17" si="18">HEX2DEC(MID(D11,2,2))</f>
         <v>128</v>
       </c>
       <c r="F11" s="12">
-        <f>HEX2DEC(MID(D11,4,2))</f>
+        <f t="shared" ref="F11:F17" si="19">HEX2DEC(MID(D11,4,2))</f>
         <v>128</v>
       </c>
       <c r="G11" s="13">
-        <f>HEX2DEC(MID(D11,6,2))</f>
+        <f t="shared" ref="G11:G17" si="20">HEX2DEC(MID(D11,6,2))</f>
         <v>128</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="L11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.50196078431372548</v>
       </c>
       <c r="M11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="14" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S11" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" ref="T11:T17" si="14">ROUND((K11+L11)/2,2)</f>
+        <f t="shared" ref="T11:T17" si="21">ROUND((K11+L11)/2,2)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -2211,71 +2216,71 @@
         <v>39</v>
       </c>
       <c r="E12" s="11">
-        <f>HEX2DEC(MID(D12,2,2))</f>
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="F12" s="12">
-        <f>HEX2DEC(MID(D12,4,2))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <f>HEX2DEC(MID(D12,6,2))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:H17" si="15">E12/255</f>
+        <f t="shared" ref="H12:H17" si="22">E12/255</f>
         <v>0.50196078431372548</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I17" si="16">F12/255</f>
+        <f t="shared" ref="I12:I17" si="23">F12/255</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J17" si="17">G12/255</f>
+        <f t="shared" ref="J12:J17" si="24">G12/255</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K17" si="18">MAX(H12:J12)</f>
+        <f t="shared" ref="K12:K17" si="25">MAX(H12:J12)</f>
         <v>0.50196078431372548</v>
       </c>
       <c r="L12">
-        <f t="shared" ref="L12:L17" si="19">MIN(H12:J12)</f>
+        <f t="shared" ref="L12:L17" si="26">MIN(H12:J12)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M17" si="20">K12-L12</f>
+        <f t="shared" ref="M12:M17" si="27">K12-L12</f>
         <v>0.50196078431372548</v>
       </c>
       <c r="N12" s="14">
-        <f t="shared" ref="N12:N17" si="21">60*(MOD(((I12-J12)/M12),6))</f>
+        <f t="shared" ref="N12:N17" si="28">60*(MOD(((I12-J12)/M12),6))</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O17" si="22">60*(((J12-H12)/M12)+2)</f>
+        <f t="shared" ref="O12:O17" si="29">60*(((J12-H12)/M12)+2)</f>
         <v>60</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:P17" si="23">60*(((H12-I12)/M12)+4)</f>
+        <f t="shared" ref="P12:P17" si="30">60*(((H12-I12)/M12)+4)</f>
         <v>300</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.003921568627451</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -2286,71 +2291,71 @@
         <v>40</v>
       </c>
       <c r="E13" s="11">
-        <f>HEX2DEC(MID(D13,2,2))</f>
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="F13" s="12">
-        <f>HEX2DEC(MID(D13,4,2))</f>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="G13" s="13">
-        <f>HEX2DEC(MID(D13,6,2))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
+        <f t="shared" si="22"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="23"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="25"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="27"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="N13" s="14">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="30"/>
+        <v>240</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="15"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="I13">
+        <v>1.003921568627451</v>
+      </c>
+      <c r="R13" s="5">
         <f t="shared" si="16"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="J13">
+        <v>60</v>
+      </c>
+      <c r="S13" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="18"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="20"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="N13" s="14">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
         <f t="shared" si="21"/>
-        <v>60</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="22"/>
-        <v>60</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="23"/>
-        <v>240</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="11"/>
-        <v>1.003921568627451</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="7">
-        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -2361,71 +2366,71 @@
         <v>41</v>
       </c>
       <c r="E14" s="11">
-        <f>HEX2DEC(MID(D14,2,2))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F14" s="12">
-        <f>HEX2DEC(MID(D14,4,2))</f>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="G14" s="13">
-        <f>HEX2DEC(MID(D14,6,2))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="23"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="25"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="27"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="N14" s="14">
+        <f t="shared" si="28"/>
+        <v>60</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
+        <v>1.003921568627451</v>
+      </c>
+      <c r="R14" s="5">
         <f t="shared" si="16"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="J14">
+        <v>120</v>
+      </c>
+      <c r="S14" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="18"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="20"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
         <f t="shared" si="21"/>
-        <v>60</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="22"/>
-        <v>120</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="23"/>
-        <v>180</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="11"/>
-        <v>1.003921568627451</v>
-      </c>
-      <c r="R14" s="5">
-        <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -2436,71 +2441,71 @@
         <v>42</v>
       </c>
       <c r="E15" s="11">
-        <f>HEX2DEC(MID(D15,2,2))</f>
+        <f t="shared" si="18"/>
         <v>128</v>
       </c>
       <c r="F15" s="12">
-        <f>HEX2DEC(MID(D15,4,2))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <f>HEX2DEC(MID(D15,6,2))</f>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="H15" s="1">
+        <f t="shared" si="22"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="24"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="25"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="27"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="N15" s="14">
+        <f t="shared" si="28"/>
+        <v>300</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="29"/>
+        <v>120</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="15"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="I15">
+        <v>1.003921568627451</v>
+      </c>
+      <c r="R15" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
+        <v>300</v>
+      </c>
+      <c r="S15" s="6">
         <f t="shared" si="17"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="18"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="20"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
         <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="22"/>
-        <v>120</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="23"/>
-        <v>300</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="11"/>
-        <v>1.003921568627451</v>
-      </c>
-      <c r="R15" s="5">
-        <f t="shared" si="12"/>
-        <v>300</v>
-      </c>
-      <c r="S15" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="7">
-        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>24</v>
       </c>
@@ -2511,71 +2516,71 @@
         <v>43</v>
       </c>
       <c r="E16" s="11">
-        <f>HEX2DEC(MID(D16,2,2))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F16" s="12">
-        <f>HEX2DEC(MID(D16,4,2))</f>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="G16" s="13">
-        <f>HEX2DEC(MID(D16,6,2))</f>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="H16" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="23"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="24"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="25"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="27"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="N16" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="29"/>
+        <v>180</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="30"/>
+        <v>180</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
+        <v>1.003921568627451</v>
+      </c>
+      <c r="R16" s="5">
         <f t="shared" si="16"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="J16">
+        <v>180</v>
+      </c>
+      <c r="S16" s="6">
         <f t="shared" si="17"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="18"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="20"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="22"/>
-        <v>180</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="23"/>
-        <v>180</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="11"/>
-        <v>1.003921568627451</v>
-      </c>
-      <c r="R16" s="5">
-        <f t="shared" si="12"/>
-        <v>180</v>
-      </c>
-      <c r="S16" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T16" s="7">
-        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -2586,67 +2591,67 @@
         <v>44</v>
       </c>
       <c r="E17" s="11">
-        <f>HEX2DEC(MID(D17,2,2))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F17" s="12">
-        <f>HEX2DEC(MID(D17,4,2))</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <f>HEX2DEC(MID(D17,6,2))</f>
+        <f t="shared" si="20"/>
         <v>128</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="24"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="25"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="27"/>
+        <v>0.50196078431372548</v>
+      </c>
+      <c r="N17" s="14">
+        <f t="shared" si="28"/>
+        <v>300</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="29"/>
+        <v>180</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="30"/>
+        <v>240</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
+        <v>1.003921568627451</v>
+      </c>
+      <c r="R17" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
+        <v>240</v>
+      </c>
+      <c r="S17" s="6">
         <f t="shared" si="17"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="18"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="20"/>
-        <v>0.50196078431372548</v>
-      </c>
-      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
         <f t="shared" si="21"/>
-        <v>300</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="22"/>
-        <v>180</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="23"/>
-        <v>240</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="11"/>
-        <v>1.003921568627451</v>
-      </c>
-      <c r="R17" s="5">
-        <f t="shared" si="12"/>
-        <v>240</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="7">
-        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
     </row>
